--- a/data/XGB.xlsx
+++ b/data/XGB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23011\Desktop\upload_github\Heterogeneous-Transfer-Learning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9505451-4EC2-48E2-8EFC-9386185C15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8E1501-74F2-4C08-A651-E2B4CE0298A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{57D91C6E-15D9-417D-9A82-5A538EA4AA28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57D91C6E-15D9-417D-9A82-5A538EA4AA28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
